--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/analysis/p6/p6_analysis.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/analysis/p6/p6_analysis.xlsx
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1968,16 +1968,16 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6379,10 +6379,10 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -6532,10 +6532,10 @@
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.1844277783908294</v>
       </c>
     </row>
     <row r="15">
